--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/04.TraBH/TBH201210_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/04.TraBH/TBH201210_GiaThanh.xlsx
@@ -77,9 +77,6 @@
     <t>Ghi Chú</t>
   </si>
   <si>
-    <t>ĐT : +84 24 36400767       (Ext: 108   )  Fax:  +84 4 36400767</t>
-  </si>
-  <si>
     <t>Hà Văn Thể</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Xử lý phần cứng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐT : +84 915223399       </t>
   </si>
 </sst>
 </file>
@@ -811,6 +811,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,48 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1284,77 +1284,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="48" t="s">
+      <c r="A1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="71"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="20"/>
       <c r="F6" s="16"/>
       <c r="G6" s="10"/>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="7" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="66"/>
+      <c r="B7" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="56"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="26"/>
@@ -1376,12 +1376,12 @@
     </row>
     <row r="8" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="28"/>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="9" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="10" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
@@ -1453,23 +1453,23 @@
         <v>1</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="46">
         <v>867717030816461</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="42"/>
     </row>
@@ -1478,23 +1478,23 @@
         <v>2</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="46">
         <v>867717030548300</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="43"/>
     </row>
@@ -1503,21 +1503,21 @@
         <v>3</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="46">
         <v>867717030420047</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="43"/>
     </row>
@@ -1526,21 +1526,21 @@
         <v>4</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="46">
         <v>860906041204451</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="42"/>
     </row>
@@ -1549,23 +1549,23 @@
         <v>5</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="46">
         <v>868926034002821</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="42"/>
     </row>
@@ -1574,33 +1574,33 @@
         <v>6</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="46">
         <v>868345031039613</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
       <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
+      <c r="A18" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="55"/>
       <c r="I18" s="44">
         <f>SUM(I12:I17)</f>
         <v>0</v>
@@ -1620,26 +1620,26 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
+      <c r="G20" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
+      <c r="A21" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="75" t="s">
+      <c r="G21" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
@@ -1689,29 +1689,39 @@
       <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="G27" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
+      <c r="A27" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="G27" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G28" s="19"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
     </row>
     <row r="69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="A21:E21"/>
@@ -1720,16 +1730,6 @@
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="A18:H18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
